--- a/OnBoard/data/target_species.xlsx
+++ b/OnBoard/data/target_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.luzi\OneDrive - CNR\CNR\SoleMon\solemon2024\access_da_modificare\SoleMon_project-main\OnBoard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.palermino\OneDrive - CNR\Assegno Scarcella\Solemon\Solemon 2025\OnBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>species_name</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>PENAZTC</t>
+  </si>
+  <si>
+    <t>SPARAUR</t>
+  </si>
+  <si>
+    <t>LITHMOR</t>
   </si>
 </sst>
 </file>
@@ -610,9 +616,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,19 +1155,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1241,6 +1248,22 @@
         <v>31</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
     </row>
